--- a/results/mp/tinybert/corona/confidence/210/stop-words-masking-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/stop-words-masking-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="116">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,99 +40,102 @@
     <t>name</t>
   </si>
   <si>
+    <t>killed</t>
+  </si>
+  <si>
     <t>arrested</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>fake</t>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>fear</t>
   </si>
   <si>
     <t>collapse</t>
   </si>
   <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>fear</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
     <t>shit</t>
   </si>
   <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
+    <t>shortage</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
+    <t>risk</t>
+  </si>
+  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>shortage</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
     <t>isolation</t>
   </si>
   <si>
     <t>drop</t>
   </si>
   <si>
+    <t>empty</t>
+  </si>
+  <si>
     <t>fight</t>
   </si>
   <si>
     <t>stop</t>
   </si>
   <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
-    <t>enjoy</t>
-  </si>
-  <si>
     <t>amazing</t>
   </si>
   <si>
@@ -142,208 +145,217 @@
     <t>interesting</t>
   </si>
   <si>
+    <t>strong</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
-    <t>strong</t>
+    <t>friend</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
-    <t>friend</t>
-  </si>
-  <si>
     <t>nice</t>
   </si>
   <si>
-    <t>wow</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>creative</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>creative</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>healthy</t>
+    <t>support</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>friends</t>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>support</t>
+    <t>well</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
     <t>credit</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>dear</t>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>worth</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>ready</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
     <t>gt</t>
   </si>
   <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>giving</t>
+    <t>growth</t>
   </si>
   <si>
     <t>save</t>
   </si>
   <si>
-    <t>join</t>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>hope</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>growth</t>
-  </si>
-  <si>
     <t>sure</t>
   </si>
   <si>
-    <t>clean</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>hope</t>
+    <t>key</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>give</t>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>available</t>
   </si>
   <si>
     <t>increased</t>
   </si>
   <si>
-    <t>helping</t>
+    <t>essential</t>
   </si>
   <si>
     <t>health</t>
   </si>
   <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
     <t>new</t>
   </si>
   <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
     <t>make</t>
   </si>
   <si>
-    <t>home</t>
-  </si>
-  <si>
     <t>store</t>
   </si>
   <si>
+    <t>stock</t>
+  </si>
+  <si>
     <t>grocery</t>
   </si>
   <si>
-    <t>stock</t>
+    <t>stay</t>
   </si>
   <si>
     <t>consumer</t>
   </si>
   <si>
+    <t>supermarket</t>
+  </si>
+  <si>
     <t>19</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>food</t>
   </si>
   <si>
     <t>co</t>
@@ -707,7 +719,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q76"/>
+  <dimension ref="A1:Q78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -715,10 +727,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -779,10 +791,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -797,16 +809,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M3">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -829,34 +841,34 @@
         <v>1</v>
       </c>
       <c r="C4">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
         <v>13</v>
       </c>
-      <c r="D4">
+      <c r="M4">
         <v>13</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>18</v>
-      </c>
-      <c r="M4">
-        <v>18</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -876,38 +888,38 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9411764705882353</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="C5">
+        <v>33</v>
+      </c>
+      <c r="D5">
+        <v>33</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5">
+        <v>0.9696969696969697</v>
+      </c>
+      <c r="L5">
         <v>32</v>
       </c>
-      <c r="D5">
+      <c r="M5">
         <v>32</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>13</v>
-      </c>
-      <c r="M5">
-        <v>13</v>
-      </c>
       <c r="N5">
         <v>1</v>
       </c>
@@ -918,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -926,13 +938,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8055555555555556</v>
+        <v>0.75</v>
       </c>
       <c r="C6">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -944,19 +956,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K6">
-        <v>0.9696969696969697</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="L6">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="M6">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -976,13 +988,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.708904109589041</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C7">
-        <v>207</v>
+        <v>19</v>
       </c>
       <c r="D7">
-        <v>207</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -994,19 +1006,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>85</v>
+        <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K7">
-        <v>0.9661016949152542</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L7">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M7">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1018,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1026,13 +1038,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7</v>
+        <v>0.72</v>
       </c>
       <c r="C8">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D8">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1044,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K8">
-        <v>0.9615384615384616</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1068,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1076,13 +1088,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6923076923076923</v>
+        <v>0.708904109589041</v>
       </c>
       <c r="C9">
-        <v>18</v>
+        <v>207</v>
       </c>
       <c r="D9">
-        <v>18</v>
+        <v>207</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1094,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K9">
-        <v>0.9545454545454546</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L9">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M9">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1118,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1147,16 +1159,16 @@
         <v>9</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K10">
-        <v>0.9347826086956522</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L10">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M10">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1168,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1176,13 +1188,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="C11">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1194,19 +1206,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K11">
-        <v>0.8947368421052632</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L11">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="M11">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1218,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1226,13 +1238,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5909090909090909</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="C12">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D12">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1247,16 +1259,16 @@
         <v>9</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K12">
-        <v>0.8888888888888888</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L12">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="M12">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1268,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1276,13 +1288,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5333333333333333</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C13">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D13">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1294,31 +1306,31 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K13">
-        <v>0.8666666666666667</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L13">
+        <v>69</v>
+      </c>
+      <c r="M13">
+        <v>69</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>13</v>
-      </c>
-      <c r="M13">
-        <v>13</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1326,13 +1338,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5263157894736842</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C14">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D14">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1344,19 +1356,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K14">
-        <v>0.8571428571428571</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L14">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="M14">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1368,7 +1380,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1376,13 +1388,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5</v>
+        <v>0.4864864864864865</v>
       </c>
       <c r="C15">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D15">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1394,19 +1406,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K15">
-        <v>0.851063829787234</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L15">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="M15">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1418,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1426,13 +1438,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4594594594594595</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C16">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D16">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1444,19 +1456,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K16">
-        <v>0.8414634146341463</v>
+        <v>0.8203125</v>
       </c>
       <c r="L16">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="M16">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1468,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1476,13 +1488,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4358974358974359</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="C17">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D17">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1494,31 +1506,31 @@
         <v>0</v>
       </c>
       <c r="H17">
+        <v>20</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K17">
+        <v>0.8166666666666667</v>
+      </c>
+      <c r="L17">
+        <v>98</v>
+      </c>
+      <c r="M17">
+        <v>98</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
         <v>22</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K17">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="L17">
-        <v>30</v>
-      </c>
-      <c r="M17">
-        <v>30</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1526,13 +1538,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4102564102564102</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="C18">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D18">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1544,19 +1556,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K18">
-        <v>0.8203125</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L18">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="M18">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1568,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1576,13 +1588,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3624161073825503</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="C19">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="D19">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1594,10 +1606,10 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K19">
         <v>0.8125</v>
@@ -1626,13 +1638,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3466666666666667</v>
+        <v>0.3959731543624161</v>
       </c>
       <c r="C20">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="D20">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1644,19 +1656,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K20">
-        <v>0.7843137254901961</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="L20">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="M20">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1668,7 +1680,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1676,13 +1688,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3449612403100775</v>
+        <v>0.36</v>
       </c>
       <c r="C21">
-        <v>178</v>
+        <v>27</v>
       </c>
       <c r="D21">
-        <v>178</v>
+        <v>27</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1694,19 +1706,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>338</v>
+        <v>48</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K21">
-        <v>0.7833333333333333</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L21">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="M21">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1718,7 +1730,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1726,13 +1738,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3137254901960784</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="C22">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D22">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1744,19 +1756,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K22">
-        <v>0.7777777777777778</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="L22">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="M22">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1768,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1776,13 +1788,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3121693121693122</v>
+        <v>0.3546511627906977</v>
       </c>
       <c r="C23">
-        <v>59</v>
+        <v>183</v>
       </c>
       <c r="D23">
-        <v>59</v>
+        <v>183</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1794,19 +1806,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>130</v>
+        <v>333</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K23">
-        <v>0.7758620689655172</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L23">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="M23">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1818,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1826,13 +1838,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.288135593220339</v>
+        <v>0.3050847457627119</v>
       </c>
       <c r="C24">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D24">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1844,19 +1856,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K24">
-        <v>0.7535211267605634</v>
+        <v>0.7452830188679245</v>
       </c>
       <c r="L24">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="M24">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1868,7 +1880,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1876,13 +1888,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.2727272727272727</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="C25">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D25">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1894,19 +1906,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K25">
-        <v>0.75</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="L25">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="M25">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1918,7 +1930,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1926,13 +1938,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.2549019607843137</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C26">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D26">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1944,19 +1956,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K26">
-        <v>0.746031746031746</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="L26">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="M26">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1968,7 +1980,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1976,13 +1988,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.2542372881355932</v>
+        <v>0.2751322751322751</v>
       </c>
       <c r="C27">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="D27">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1994,19 +2006,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>44</v>
+        <v>137</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K27">
-        <v>0.7358490566037735</v>
+        <v>0.73125</v>
       </c>
       <c r="L27">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="M27">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2018,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2026,13 +2038,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1875</v>
+        <v>0.2745098039215687</v>
       </c>
       <c r="C28">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D28">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2044,19 +2056,19 @@
         <v>0</v>
       </c>
       <c r="H28">
+        <v>37</v>
+      </c>
+      <c r="J28" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J28" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="K28">
-        <v>0.7222222222222222</v>
+        <v>0.7301587301587301</v>
       </c>
       <c r="L28">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="M28">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2068,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2076,37 +2088,37 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.1825396825396825</v>
+        <v>0.2203389830508475</v>
       </c>
       <c r="C29">
+        <v>13</v>
+      </c>
+      <c r="D29">
+        <v>13</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29">
         <v>46</v>
       </c>
-      <c r="D29">
-        <v>46</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>206</v>
-      </c>
       <c r="J29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K29">
+        <v>0.6808510638297872</v>
+      </c>
+      <c r="L29">
         <v>64</v>
       </c>
-      <c r="K29">
-        <v>0.7125</v>
-      </c>
-      <c r="L29">
-        <v>114</v>
-      </c>
       <c r="M29">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2118,7 +2130,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2126,13 +2138,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1777777777777778</v>
+        <v>0.2</v>
       </c>
       <c r="C30">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D30">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2144,19 +2156,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K30">
-        <v>0.7083333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L30">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="M30">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2168,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2176,141 +2188,189 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.09919571045576407</v>
+        <v>0.1875</v>
       </c>
       <c r="C31">
+        <v>15</v>
+      </c>
+      <c r="D31">
+        <v>15</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>65</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K31">
+        <v>0.6458333333333334</v>
+      </c>
+      <c r="L31">
+        <v>31</v>
+      </c>
+      <c r="M31">
+        <v>31</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D31">
-        <v>37</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>336</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K31">
-        <v>0.6956521739130435</v>
-      </c>
-      <c r="L31">
-        <v>16</v>
-      </c>
-      <c r="M31">
-        <v>16</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
+      <c r="B32">
+        <v>0.1626984126984127</v>
+      </c>
+      <c r="C32">
+        <v>41</v>
+      </c>
+      <c r="D32">
+        <v>41</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>211</v>
+      </c>
       <c r="J32" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K32">
-        <v>0.6842105263157895</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L32">
+        <v>18</v>
+      </c>
+      <c r="M32">
+        <v>18</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33">
+        <v>0.09651474530831099</v>
+      </c>
+      <c r="C33">
+        <v>36</v>
+      </c>
+      <c r="D33">
+        <v>36</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>337</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K33">
+        <v>0.6266318537859008</v>
+      </c>
+      <c r="L33">
+        <v>240</v>
+      </c>
+      <c r="M33">
+        <v>240</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="J34" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K34">
+        <v>0.6176470588235294</v>
+      </c>
+      <c r="L34">
+        <v>21</v>
+      </c>
+      <c r="M34">
+        <v>21</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
         <v>13</v>
       </c>
-      <c r="M32">
-        <v>13</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="10:17">
-      <c r="J33" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K33">
-        <v>0.6595744680851063</v>
-      </c>
-      <c r="L33">
-        <v>62</v>
-      </c>
-      <c r="M33">
-        <v>62</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="10:17">
-      <c r="J34" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K34">
-        <v>0.6458333333333334</v>
-      </c>
-      <c r="L34">
-        <v>31</v>
-      </c>
-      <c r="M34">
-        <v>31</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="10:17">
+    </row>
+    <row r="35" spans="1:17">
       <c r="J35" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K35">
-        <v>0.6176470588235294</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="L35">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M35">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2325,18 +2385,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="10:17">
+    <row r="36" spans="1:17">
       <c r="J36" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K36">
-        <v>0.6083550913838121</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="L36">
-        <v>233</v>
+        <v>26</v>
       </c>
       <c r="M36">
-        <v>233</v>
+        <v>26</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2348,177 +2408,177 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="37" spans="10:17">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
       <c r="J37" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K37">
-        <v>0.6071428571428571</v>
+        <v>0.575</v>
       </c>
       <c r="L37">
+        <v>23</v>
+      </c>
+      <c r="M37">
+        <v>23</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
         <v>17</v>
       </c>
-      <c r="M37">
-        <v>17</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
+    </row>
+    <row r="38" spans="1:17">
+      <c r="J38" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K38">
+        <v>0.5676470588235294</v>
+      </c>
+      <c r="L38">
+        <v>193</v>
+      </c>
+      <c r="M38">
+        <v>193</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="J39" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K39">
+        <v>0.5581395348837209</v>
+      </c>
+      <c r="L39">
+        <v>24</v>
+      </c>
+      <c r="M39">
+        <v>24</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="J40" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K40">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="L40">
+        <v>18</v>
+      </c>
+      <c r="M40">
+        <v>18</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="J41" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K41">
+        <v>0.5423728813559322</v>
+      </c>
+      <c r="L41">
+        <v>160</v>
+      </c>
+      <c r="M41">
+        <v>160</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="J42" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K42">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="L42">
+        <v>13</v>
+      </c>
+      <c r="M42">
+        <v>13</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="10:17">
-      <c r="J38" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K38">
-        <v>0.6</v>
-      </c>
-      <c r="L38">
-        <v>30</v>
-      </c>
-      <c r="M38">
-        <v>30</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="10:17">
-      <c r="J39" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K39">
-        <v>0.5970588235294118</v>
-      </c>
-      <c r="L39">
-        <v>203</v>
-      </c>
-      <c r="M39">
-        <v>203</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="40" spans="10:17">
-      <c r="J40" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K40">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="L40">
-        <v>16</v>
-      </c>
-      <c r="M40">
-        <v>16</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="10:17">
-      <c r="J41" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K41">
-        <v>0.5555555555555556</v>
-      </c>
-      <c r="L41">
-        <v>25</v>
-      </c>
-      <c r="M41">
-        <v>25</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="10:17">
-      <c r="J42" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K42">
-        <v>0.55</v>
-      </c>
-      <c r="L42">
-        <v>22</v>
-      </c>
-      <c r="M42">
-        <v>22</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" spans="10:17">
+    <row r="43" spans="1:17">
       <c r="J43" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K43">
-        <v>0.5288135593220339</v>
+        <v>0.54</v>
       </c>
       <c r="L43">
-        <v>156</v>
+        <v>27</v>
       </c>
       <c r="M43">
-        <v>156</v>
+        <v>27</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2530,21 +2590,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="44" spans="10:17">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
       <c r="J44" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K44">
-        <v>0.5280898876404494</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="L44">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="M44">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2556,99 +2616,99 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="10:17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
       <c r="J45" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K45">
-        <v>0.525</v>
+        <v>0.5056179775280899</v>
       </c>
       <c r="L45">
+        <v>45</v>
+      </c>
+      <c r="M45">
+        <v>45</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="J46" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K46">
+        <v>0.5</v>
+      </c>
+      <c r="L46">
         <v>21</v>
       </c>
-      <c r="M45">
+      <c r="M46">
         <v>21</v>
       </c>
-      <c r="N45">
-        <v>1</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q45">
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="J47" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K47">
+        <v>0.4814814814814815</v>
+      </c>
+      <c r="L47">
+        <v>13</v>
+      </c>
+      <c r="M47">
+        <v>13</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="J48" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K48">
+        <v>0.475</v>
+      </c>
+      <c r="L48">
         <v>19</v>
       </c>
-    </row>
-    <row r="46" spans="10:17">
-      <c r="J46" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K46">
-        <v>0.5238095238095238</v>
-      </c>
-      <c r="L46">
-        <v>22</v>
-      </c>
-      <c r="M46">
-        <v>22</v>
-      </c>
-      <c r="N46">
-        <v>1</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="47" spans="10:17">
-      <c r="J47" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K47">
-        <v>0.5151515151515151</v>
-      </c>
-      <c r="L47">
-        <v>17</v>
-      </c>
-      <c r="M47">
-        <v>17</v>
-      </c>
-      <c r="N47">
-        <v>1</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="48" spans="10:17">
-      <c r="J48" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K48">
-        <v>0.5142857142857142</v>
-      </c>
-      <c r="L48">
-        <v>18</v>
-      </c>
       <c r="M48">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2660,21 +2720,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K49">
-        <v>0.5116279069767442</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="L49">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M49">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2686,21 +2746,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K50">
-        <v>0.5062761506276151</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="L50">
-        <v>121</v>
+        <v>16</v>
       </c>
       <c r="M50">
-        <v>121</v>
+        <v>16</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2712,15 +2772,15 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>118</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K51">
-        <v>0.5</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="L51">
         <v>14</v>
@@ -2738,21 +2798,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K52">
-        <v>0.5</v>
+        <v>0.4461538461538462</v>
       </c>
       <c r="L52">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M52">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2764,21 +2824,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K53">
-        <v>0.4516129032258064</v>
+        <v>0.4435146443514644</v>
       </c>
       <c r="L53">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="M53">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2790,21 +2850,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>17</v>
+        <v>133</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K54">
-        <v>0.4383561643835616</v>
+        <v>0.4375</v>
       </c>
       <c r="L54">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M54">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2816,15 +2876,15 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K55">
-        <v>0.3974358974358974</v>
+        <v>0.4246575342465753</v>
       </c>
       <c r="L55">
         <v>31</v>
@@ -2842,21 +2902,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K56">
-        <v>0.3692307692307693</v>
+        <v>0.3717948717948718</v>
       </c>
       <c r="L56">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="M56">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2868,21 +2928,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K57">
-        <v>0.3571428571428572</v>
+        <v>0.3404255319148936</v>
       </c>
       <c r="L57">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="M57">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2894,21 +2954,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K58">
-        <v>0.3191489361702128</v>
+        <v>0.3</v>
       </c>
       <c r="L58">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M58">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2920,21 +2980,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K59">
-        <v>0.2459016393442623</v>
+        <v>0.2711864406779661</v>
       </c>
       <c r="L59">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M59">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2946,21 +3006,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K60">
-        <v>0.2361111111111111</v>
+        <v>0.2542372881355932</v>
       </c>
       <c r="L60">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M60">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2972,21 +3032,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K61">
-        <v>0.2203389830508475</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="L61">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M61">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2998,15 +3058,15 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K62">
-        <v>0.1221374045801527</v>
+        <v>0.1259842519685039</v>
       </c>
       <c r="L62">
         <v>16</v>
@@ -3024,47 +3084,47 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K63">
-        <v>0.102803738317757</v>
+        <v>0.1221374045801527</v>
       </c>
       <c r="L63">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="M63">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="N63">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O63">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q63">
-        <v>192</v>
+        <v>115</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K64">
-        <v>0.09090909090909091</v>
+        <v>0.1129807692307692</v>
       </c>
       <c r="L64">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="M64">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -3076,21 +3136,21 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>380</v>
+        <v>369</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K65">
-        <v>0.0889423076923077</v>
+        <v>0.1028708133971292</v>
       </c>
       <c r="L65">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="M65">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -3102,21 +3162,21 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K66">
-        <v>0.08484848484848485</v>
+        <v>0.1023255813953488</v>
       </c>
       <c r="L66">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="M66">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -3128,21 +3188,21 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>151</v>
+        <v>193</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K67">
-        <v>0.08372093023255814</v>
+        <v>0.0880503144654088</v>
       </c>
       <c r="L67">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M67">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -3154,21 +3214,21 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>197</v>
+        <v>145</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K68">
-        <v>0.0738255033557047</v>
+        <v>0.07906976744186046</v>
       </c>
       <c r="L68">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="M68">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -3180,21 +3240,21 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>828</v>
+        <v>198</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K69">
-        <v>0.04661487236403995</v>
+        <v>0.07878787878787878</v>
       </c>
       <c r="L69">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M69">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -3206,21 +3266,21 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>859</v>
+        <v>152</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K70">
-        <v>0.04587155963302753</v>
+        <v>0.06263982102908278</v>
       </c>
       <c r="L70">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="M70">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -3232,73 +3292,73 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>312</v>
+        <v>838</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K71">
-        <v>0.04160246533127889</v>
+        <v>0.05198776758409786</v>
       </c>
       <c r="L71">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="M71">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="N71">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O71">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q71">
-        <v>622</v>
+        <v>310</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K72">
-        <v>0.02899906454630496</v>
+        <v>0.04550499445061043</v>
       </c>
       <c r="L72">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="M72">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="N72">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O72">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q72">
-        <v>2076</v>
+        <v>860</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K73">
-        <v>0.0196078431372549</v>
+        <v>0.04220779220779221</v>
       </c>
       <c r="L73">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M73">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -3310,85 +3370,137 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>850</v>
+        <v>295</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K74">
-        <v>0.01345755693581781</v>
+        <v>0.03549382716049383</v>
       </c>
       <c r="L74">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M74">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N74">
-        <v>0.87</v>
+        <v>0.92</v>
       </c>
       <c r="O74">
-        <v>0.13</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P74" t="b">
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>953</v>
+        <v>625</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K75">
-        <v>0.01289906481780071</v>
+        <v>0.02998846597462514</v>
       </c>
       <c r="L75">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="M75">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="N75">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="O75">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="P75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q75">
-        <v>3061</v>
+        <v>841</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K76">
-        <v>0.006257822277847309</v>
+        <v>0.02568893040635217</v>
       </c>
       <c r="L76">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="M76">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="N76">
-        <v>0.8</v>
+        <v>0.96</v>
       </c>
       <c r="O76">
-        <v>0.2</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P76" t="b">
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>3176</v>
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="77" spans="10:17">
+      <c r="J77" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K77">
+        <v>0.01225411157691067</v>
+      </c>
+      <c r="L77">
+        <v>38</v>
+      </c>
+      <c r="M77">
+        <v>44</v>
+      </c>
+      <c r="N77">
+        <v>0.86</v>
+      </c>
+      <c r="O77">
+        <v>0.14</v>
+      </c>
+      <c r="P77" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q77">
+        <v>3063</v>
+      </c>
+    </row>
+    <row r="78" spans="10:17">
+      <c r="J78" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K78">
+        <v>0.00688360450563204</v>
+      </c>
+      <c r="L78">
+        <v>22</v>
+      </c>
+      <c r="M78">
+        <v>27</v>
+      </c>
+      <c r="N78">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="O78">
+        <v>0.1899999999999999</v>
+      </c>
+      <c r="P78" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q78">
+        <v>3174</v>
       </c>
     </row>
   </sheetData>
